--- a/Datasett/Grillplasser.xlsx
+++ b/Datasett/Grillplasser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DF211-1817-49ED-A3B2-A195CE5F5C30}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99EBE60-14CC-4E16-A6BB-5538A6FCC236}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>58.77399128</t>
   </si>
   <si>
-    <t xml:space="preserve">Brekko </t>
-  </si>
-  <si>
     <t>6524807.22</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>58.72413115</t>
   </si>
   <si>
-    <t>Kyllingstad badeplass</t>
-  </si>
-  <si>
     <t>6517253.15</t>
   </si>
   <si>
@@ -125,7 +119,13 @@
     <t>Gapahuk ved store Foretjørn</t>
   </si>
   <si>
-    <t xml:space="preserve">Teltplass lille Foretjørn </t>
+    <t>Kyllingstad</t>
+  </si>
+  <si>
+    <t>Teltplass lille Foretjørn</t>
+  </si>
+  <si>
+    <t>Brekko</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,75 +1022,75 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
